--- a/Other/Config/Excel/Player.xlsx
+++ b/Other/Config/Excel/Player.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16650" windowHeight="4125"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +51,24 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Prefab</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>RunSpeed</t>
+  </si>
+  <si>
+    <t>JumpForce</t>
+  </si>
+  <si>
+    <t>AttackDistance</t>
   </si>
   <si>
     <t>id</t>
@@ -1044,7 +1060,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1083,12 +1099,24 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="1"/>
@@ -1101,48 +1129,48 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
@@ -1150,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -1165,7 +1193,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1173,38 +1201,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Other/Config/Excel/Player.xlsx
+++ b/Other/Config/Excel/Player.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -40,6 +40,12 @@
     <t xml:space="preserve">每段攻击移动距离</t>
   </si>
   <si>
+    <t xml:space="preserve">普攻击技能Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">格挡技能Path</t>
+  </si>
+  <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
@@ -58,6 +64,12 @@
     <t xml:space="preserve">AttackDistance</t>
   </si>
   <si>
+    <t xml:space="preserve">PrimaryAttackSkillPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlockSkillPath</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -70,6 +82,9 @@
     <t xml:space="preserve">Vector2[]</t>
   </si>
   <si>
+    <t xml:space="preserve">string[]</t>
+  </si>
+  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
@@ -80,6 +95,16 @@
   </si>
   <si>
     <t xml:space="preserve">2,1;3,1.5;5,1;2,1;8,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill/PlayerSkill/PlayerPrimaryAttack1,
+Skill/PlayerSkill/PlayerPrimaryAttack2,
+Skill/PlayerSkill/PlayerPrimaryAttack3,
+Skill/PlayerSkill/PlayerPrimaryAttack4,
+Skill/PlayerSkill/PlayerPrimaryAttack5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill/TestPlayerBladeFight</t>
   </si>
 </sst>
 </file>
@@ -192,17 +217,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -432,128 +469,160 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="55.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="36.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" customFormat="false" ht="66.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Other/Config/Excel/Player.xlsx
+++ b/Other/Config/Excel/Player.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">每段攻击移动距离</t>
   </si>
   <si>
-    <t xml:space="preserve">普攻击技能Path</t>
+    <t xml:space="preserve">普攻第一段击技能Path</t>
   </si>
   <si>
     <t xml:space="preserve">格挡技能Path</t>
@@ -82,9 +82,6 @@
     <t xml:space="preserve">Vector2[]</t>
   </si>
   <si>
-    <t xml:space="preserve">string[]</t>
-  </si>
-  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
@@ -97,11 +94,7 @@
     <t xml:space="preserve">2,1;3,1.5;5,1;2,1;8,2</t>
   </si>
   <si>
-    <t xml:space="preserve">Skill/PlayerSkill/PlayerPrimaryAttack1,
-Skill/PlayerSkill/PlayerPrimaryAttack2,
-Skill/PlayerSkill/PlayerPrimaryAttack3,
-Skill/PlayerSkill/PlayerPrimaryAttack4,
-Skill/PlayerSkill/PlayerPrimaryAttack5,</t>
+    <t xml:space="preserve">Skill/PlayerSkill/PlayerPrimaryAttack1</t>
   </si>
   <si>
     <t xml:space="preserve">Skill/TestPlayerBladeFight</t>
@@ -472,7 +465,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -482,8 +475,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="55.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="36.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="29.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.64"/>
   </cols>
   <sheetData>
@@ -567,7 +560,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>17</v>
@@ -575,39 +568,39 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="66.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>9</v>
@@ -616,13 +609,13 @@
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Other/Config/Excel/Player.xlsx
+++ b/Other/Config/Excel/Player.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">弹跳力</t>
   </si>
   <si>
-    <t xml:space="preserve">每段攻击移动距离</t>
+    <t xml:space="preserve">冲刺速度</t>
   </si>
   <si>
     <t xml:space="preserve">普攻第一段击技能Path</t>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">JumpForce</t>
   </si>
   <si>
-    <t xml:space="preserve">AttackDistance</t>
+    <t xml:space="preserve">DashSpeed</t>
   </si>
   <si>
     <t xml:space="preserve">PrimaryAttackSkillPath</t>
@@ -79,9 +79,6 @@
     <t xml:space="preserve">float</t>
   </si>
   <si>
-    <t xml:space="preserve">Vector2[]</t>
-  </si>
-  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">FSM/PlayerFSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,1;3,1.5;5,1;2,1;8,2</t>
   </si>
   <si>
     <t xml:space="preserve">Skill/PlayerSkill/PlayerPrimaryAttack1</t>
@@ -465,7 +459,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -557,7 +551,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -568,28 +562,28 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -597,25 +591,25 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
